--- a/kids_oos.xlsx
+++ b/kids_oos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joyce\Desktop\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F29F29-4F22-47CC-AA34-F6099832AC35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FAC447-0DE1-43C7-93C2-CDDD8B165D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{83609665-4D8A-4654-93C1-1A84CEB37983}"/>
   </bookViews>
@@ -1251,7 +1251,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5E8B93-92DE-4839-882F-68CDAE1F7389}">
   <dimension ref="A1:M126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1302,392 +1304,392 @@
     </row>
     <row r="2" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="C2" s="2">
-        <v>1130508</v>
+        <v>1193982</v>
       </c>
       <c r="D2" s="3">
-        <v>44029.662824074076</v>
+        <v>44044.679745370369</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>7083447</v>
+        <v>7430487</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>333</v>
+        <v>1434</v>
       </c>
       <c r="I2">
-        <v>228</v>
+        <v>399</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>193</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="M2">
-        <v>13887</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>43841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="B3" s="2">
-        <v>1173</v>
+        <v>1141</v>
       </c>
       <c r="C3" s="2">
-        <v>217429</v>
+        <v>1045093</v>
       </c>
       <c r="D3" s="3">
-        <v>43565.466597222221</v>
+        <v>44001.625833333332</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>1667456</v>
+        <v>6559708</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>172</v>
+        <v>1427</v>
       </c>
       <c r="I3">
-        <v>242</v>
+        <v>495</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="M3">
-        <v>9157</v>
+        <v>27062</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>278</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="C4" s="2">
-        <v>207484</v>
+        <v>1047786</v>
       </c>
       <c r="D4" s="3">
-        <v>43556.740428240744</v>
+        <v>44002.731608796297</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>1596944</v>
+        <v>6576094</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>219</v>
+        <v>1290</v>
       </c>
       <c r="I4">
-        <v>290</v>
+        <v>399</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="M4">
-        <v>10802</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2">
-        <v>1170</v>
+        <v>1137</v>
       </c>
       <c r="C5" s="2">
-        <v>691808</v>
+        <v>891894</v>
       </c>
       <c r="D5" s="3">
-        <v>43833.757337962961</v>
+        <v>43903.567280092589</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>4752787</v>
+        <v>5903738</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>238</v>
+        <v>1162</v>
       </c>
       <c r="I5">
-        <v>147</v>
+        <v>382</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="M5">
-        <v>16305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>278</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
-        <v>1144</v>
+        <v>1173</v>
       </c>
       <c r="C6" s="2">
-        <v>576406</v>
+        <v>420213</v>
       </c>
       <c r="D6" s="3">
-        <v>43788.567523148151</v>
+        <v>43705.492638888885</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>4062252</v>
+        <v>3069788</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>135</v>
+        <v>990</v>
       </c>
       <c r="I6">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="M6">
-        <v>13887</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>21442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>1178</v>
+        <v>1147</v>
       </c>
       <c r="C7" s="2">
-        <v>491010</v>
+        <v>367028</v>
       </c>
       <c r="D7" s="3">
-        <v>43739.611817129633</v>
+        <v>43672.504317129627</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>3526189</v>
+        <v>2709405</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>455</v>
+        <v>928</v>
       </c>
       <c r="I7">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="M7">
-        <v>24823</v>
+        <v>13019</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B8" s="2">
-        <v>1182</v>
+        <v>1187</v>
       </c>
       <c r="C8" s="2">
-        <v>616578</v>
+        <v>385973</v>
       </c>
       <c r="D8" s="3">
-        <v>43805.518900462965</v>
+        <v>43684.766111111108</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>4300975</v>
+        <v>2842023</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>599</v>
+        <v>854</v>
       </c>
       <c r="I8">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="M8">
-        <v>30004</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>278</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="C9" s="2">
-        <v>458813</v>
+        <v>891894</v>
       </c>
       <c r="D9" s="3">
-        <v>43724.774930555555</v>
+        <v>43903.567280092589</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>3316564</v>
+        <v>5903680</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>305</v>
+        <v>842</v>
       </c>
       <c r="I9">
-        <v>167</v>
+        <v>382</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="M9">
-        <v>13887</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>278</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="C10" s="2">
-        <v>463363</v>
+        <v>1041990</v>
       </c>
       <c r="D10" s="3">
-        <v>43726.865266203706</v>
+        <v>43999.707569444443</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>3345744</v>
+        <v>6540446</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>193</v>
+        <v>840</v>
       </c>
       <c r="I10">
-        <v>181</v>
+        <v>399</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>170</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="M10">
-        <v>8013</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C11" s="2">
-        <v>761920</v>
+        <v>722410</v>
       </c>
       <c r="D11" s="3">
-        <v>43860.418807870374</v>
+        <v>43846.694224537037</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>5157429</v>
+        <v>4935248</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>233</v>
+        <v>696</v>
       </c>
       <c r="I11">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="M11">
-        <v>33636</v>
+        <v>17403</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1698,74 +1700,74 @@
         <v>1137</v>
       </c>
       <c r="C12" s="2">
-        <v>1159028</v>
+        <v>1041990</v>
       </c>
       <c r="D12" s="3">
-        <v>44037.404178240744</v>
+        <v>43999.707569444443</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>7251719</v>
+        <v>6540447</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>511</v>
+        <v>660</v>
       </c>
       <c r="I12">
-        <v>1099</v>
+        <v>399</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>38205</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="C13" s="2">
-        <v>742826</v>
+        <v>367028</v>
       </c>
       <c r="D13" s="3">
-        <v>43854.394872685189</v>
+        <v>43672.504317129627</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>5050178</v>
+        <v>2709404</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>268</v>
+        <v>647</v>
       </c>
       <c r="I13">
-        <v>319</v>
+        <v>209</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" t="s">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="M13">
-        <v>9459</v>
+        <v>13019</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1776,71 +1778,71 @@
         <v>1182</v>
       </c>
       <c r="C14" s="2">
-        <v>673689</v>
+        <v>616578</v>
       </c>
       <c r="D14" s="3">
-        <v>43826.503182870372</v>
+        <v>43805.518900462965</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>4644973</v>
+        <v>4300975</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>149</v>
+        <v>599</v>
       </c>
       <c r="I14">
-        <v>385</v>
+        <v>260</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>26162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>30004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2">
-        <v>1173</v>
+        <v>1182</v>
       </c>
       <c r="C15" s="2">
-        <v>420213</v>
+        <v>623470</v>
       </c>
       <c r="D15" s="3">
-        <v>43705.492638888885</v>
+        <v>43808.461296296293</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>3069788</v>
+        <v>4345133</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>990</v>
+        <v>571</v>
       </c>
       <c r="I15">
-        <v>281</v>
+        <v>458</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="M15">
         <v>21442</v>
@@ -1848,119 +1850,119 @@
     </row>
     <row r="16" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="B16" s="2">
-        <v>1182</v>
+        <v>1141</v>
       </c>
       <c r="C16" s="2">
-        <v>812037</v>
+        <v>1130883</v>
       </c>
       <c r="D16" s="3">
-        <v>43875.516643518517</v>
+        <v>44029.72016203704</v>
       </c>
       <c r="E16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>5445228</v>
+        <v>7085926</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>215</v>
+        <v>562</v>
       </c>
       <c r="I16">
-        <v>234</v>
+        <v>295</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="M16">
-        <v>30004</v>
+        <v>27062</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>278</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="C17" s="2">
-        <v>863915</v>
+        <v>1159028</v>
       </c>
       <c r="D17" s="3">
-        <v>43894.426608796297</v>
+        <v>44037.404178240744</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="F17" s="2">
-        <v>5746584</v>
+        <v>7251719</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>171</v>
+        <v>511</v>
       </c>
       <c r="I17">
-        <v>308</v>
+        <v>1099</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>27062</v>
+        <v>38205</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2">
-        <v>1141</v>
+        <v>1182</v>
       </c>
       <c r="C18" s="2">
-        <v>755566</v>
+        <v>616563</v>
       </c>
       <c r="D18" s="3">
-        <v>43858.466782407406</v>
+        <v>43805.517453703702</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>5120556</v>
+        <v>4300893</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>155</v>
+        <v>492</v>
       </c>
       <c r="I18">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="J18" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" t="s">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="M18">
-        <v>32721</v>
+        <v>30004</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1968,233 +1970,233 @@
         <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>1147</v>
+        <v>1182</v>
       </c>
       <c r="C19" s="2">
-        <v>1147528</v>
+        <v>753767</v>
       </c>
       <c r="D19" s="3">
-        <v>44034.699756944443</v>
+        <v>43857.628275462965</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2">
-        <v>7190079</v>
+        <v>5110714</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>175</v>
+        <v>476</v>
       </c>
       <c r="I19">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>222</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" t="s">
-        <v>54</v>
+        <v>223</v>
       </c>
       <c r="M19">
-        <v>7783</v>
+        <v>30004</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="B20" s="2">
-        <v>1182</v>
+        <v>1141</v>
       </c>
       <c r="C20" s="2">
-        <v>217292</v>
+        <v>514996</v>
       </c>
       <c r="D20" s="3">
-        <v>43565.416296296295</v>
+        <v>43752.759837962964</v>
       </c>
       <c r="E20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2">
-        <v>1666574</v>
+        <v>3689200</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>99</v>
+        <v>456</v>
       </c>
       <c r="I20">
-        <v>455</v>
+        <v>189</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="M20">
-        <v>10170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>26403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>1137</v>
+        <v>1178</v>
       </c>
       <c r="C21" s="2">
-        <v>891894</v>
+        <v>491010</v>
       </c>
       <c r="D21" s="3">
-        <v>43903.567280092589</v>
+        <v>43739.611817129633</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
       <c r="F21" s="2">
-        <v>5903738</v>
+        <v>3526189</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>1162</v>
+        <v>455</v>
       </c>
       <c r="I21">
-        <v>382</v>
+        <v>264</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>3340</v>
+        <v>24823</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="B22" s="2">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="C22" s="2">
-        <v>38362</v>
+        <v>1052669</v>
       </c>
       <c r="D22" s="3">
-        <v>43299.608414351853</v>
+        <v>44005.4221412037</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2">
-        <v>359030</v>
+        <v>6606695</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>155</v>
+        <v>434</v>
       </c>
       <c r="I22">
-        <v>364</v>
+        <v>499</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="M22">
-        <v>2433</v>
+        <v>42095</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2">
-        <v>1186</v>
+        <v>1137</v>
       </c>
       <c r="C23" s="2">
-        <v>1017569</v>
+        <v>1103046</v>
       </c>
       <c r="D23" s="3">
-        <v>43981.628101851849</v>
+        <v>44021.7422337963</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
       </c>
       <c r="F23" s="2">
-        <v>6397214</v>
+        <v>6908914</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="I23">
-        <v>394</v>
+        <v>649</v>
       </c>
       <c r="J23" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="M23">
-        <v>30650</v>
+        <v>26490</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="C24" s="2">
-        <v>738420</v>
+        <v>544674</v>
       </c>
       <c r="D24" s="3">
-        <v>43852.684259259258</v>
+        <v>43773.696527777778</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
       </c>
       <c r="F24" s="2">
-        <v>5026227</v>
+        <v>3874602</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>134</v>
+        <v>424</v>
       </c>
       <c r="I24">
-        <v>422</v>
+        <v>228</v>
       </c>
       <c r="J24" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="M24">
-        <v>6559</v>
+        <v>27747</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2202,116 +2204,116 @@
         <v>28</v>
       </c>
       <c r="B25" s="2">
-        <v>1182</v>
+        <v>1147</v>
       </c>
       <c r="C25" s="2">
-        <v>1159309</v>
+        <v>542591</v>
       </c>
       <c r="D25" s="3">
-        <v>44037.440358796295</v>
+        <v>43772.401145833333</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
       </c>
       <c r="F25" s="2">
-        <v>7253163</v>
+        <v>3861080</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>145</v>
+        <v>403</v>
       </c>
       <c r="I25">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="J25" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" t="s">
-        <v>68</v>
+        <v>273</v>
       </c>
       <c r="M25">
-        <v>7783</v>
+        <v>27747</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B26" s="2">
-        <v>1147</v>
+        <v>1187</v>
       </c>
       <c r="C26" s="2">
-        <v>616009</v>
+        <v>228732</v>
       </c>
       <c r="D26" s="3">
-        <v>43805.449317129627</v>
+        <v>43573.503564814811</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
       </c>
       <c r="F26" s="2">
-        <v>4297429</v>
+        <v>1745582</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>294</v>
+        <v>394</v>
       </c>
       <c r="I26">
-        <v>432</v>
+        <v>250</v>
       </c>
       <c r="J26" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="M26">
-        <v>17462</v>
+        <v>6687</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2">
-        <v>1157</v>
+        <v>1137</v>
       </c>
       <c r="C27" s="2">
-        <v>853706</v>
+        <v>772186</v>
       </c>
       <c r="D27" s="3">
-        <v>43890.435057870367</v>
+        <v>43863.581030092595</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
       </c>
       <c r="F27" s="2">
-        <v>5689793</v>
+        <v>5216442</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>183</v>
+        <v>394</v>
       </c>
       <c r="I27">
-        <v>228</v>
+        <v>644</v>
       </c>
       <c r="J27" t="s">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="M27">
-        <v>35596</v>
+        <v>20445</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2322,230 +2324,230 @@
         <v>1182</v>
       </c>
       <c r="C28" s="2">
-        <v>616657</v>
+        <v>926898</v>
       </c>
       <c r="D28" s="3">
-        <v>43805.528055555558</v>
+        <v>43913.693055555559</v>
       </c>
       <c r="E28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="2">
-        <v>4301435</v>
+        <v>6094877</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>12</v>
+        <v>388</v>
       </c>
       <c r="I28">
-        <v>273</v>
+        <v>457</v>
       </c>
       <c r="J28" t="s">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="M28">
-        <v>30004</v>
+        <v>17313</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>1141</v>
+        <v>1182</v>
       </c>
       <c r="C29" s="2">
-        <v>782603</v>
+        <v>438366</v>
       </c>
       <c r="D29" s="3">
-        <v>43867.437268518515</v>
+        <v>43714.942916666667</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
       </c>
       <c r="F29" s="2">
-        <v>5275174</v>
+        <v>3187665</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>103</v>
+        <v>388</v>
       </c>
       <c r="I29">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="J29" t="s">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" t="s">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="M29">
-        <v>32721</v>
+        <v>21442</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="B30" s="2">
-        <v>1141</v>
+        <v>1187</v>
       </c>
       <c r="C30" s="2">
-        <v>614595</v>
+        <v>228732</v>
       </c>
       <c r="D30" s="3">
-        <v>43804.68172453704</v>
+        <v>43573.503564814811</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
       </c>
       <c r="F30" s="2">
-        <v>4289075</v>
+        <v>1745575</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>247</v>
+        <v>380</v>
       </c>
       <c r="I30">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="J30" t="s">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" t="s">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="M30">
-        <v>13887</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>6687</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="B31" s="2">
-        <v>1143</v>
+        <v>1187</v>
       </c>
       <c r="C31" s="2">
-        <v>1030628</v>
+        <v>756689</v>
       </c>
       <c r="D31" s="3">
-        <v>43993.429386574076</v>
+        <v>43858.622094907405</v>
       </c>
       <c r="E31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="2">
-        <v>6474972</v>
+        <v>5127186</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>102</v>
+        <v>364</v>
       </c>
       <c r="I31">
-        <v>249</v>
+        <v>176</v>
       </c>
       <c r="J31" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="M31">
-        <v>8199</v>
+        <v>25856</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2">
-        <v>1186</v>
+        <v>1137</v>
       </c>
       <c r="C32" s="2">
-        <v>1017569</v>
+        <v>1203385</v>
       </c>
       <c r="D32" s="3">
-        <v>43981.628101851849</v>
+        <v>44047.494421296295</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
       </c>
       <c r="F32" s="2">
-        <v>6397212</v>
+        <v>7475853</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>186</v>
+        <v>360</v>
       </c>
       <c r="I32">
-        <v>394</v>
+        <v>300</v>
       </c>
       <c r="J32" t="s">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" t="s">
-        <v>83</v>
+        <v>277</v>
       </c>
       <c r="M32">
-        <v>30650</v>
+        <v>10419</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="B33" s="2">
-        <v>1141</v>
+        <v>1187</v>
       </c>
       <c r="C33" s="2">
-        <v>1052669</v>
+        <v>910471</v>
       </c>
       <c r="D33" s="3">
-        <v>44005.4221412037</v>
+        <v>43908.700787037036</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
       </c>
       <c r="F33" s="2">
-        <v>6606695</v>
+        <v>6007266</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>434</v>
+        <v>349</v>
       </c>
       <c r="I33">
-        <v>499</v>
+        <v>247</v>
       </c>
       <c r="J33" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="M33">
-        <v>42095</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2556,74 +2558,74 @@
         <v>1141</v>
       </c>
       <c r="C34" s="2">
-        <v>1164255</v>
+        <v>541865</v>
       </c>
       <c r="D34" s="3">
-        <v>44038.5</v>
+        <v>43771.577511574076</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
       </c>
       <c r="F34" s="2">
-        <v>7278806</v>
+        <v>3856436</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>210</v>
+        <v>338</v>
       </c>
       <c r="I34">
-        <v>649</v>
+        <v>208</v>
       </c>
       <c r="J34" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" t="s">
-        <v>87</v>
+        <v>225</v>
       </c>
       <c r="M34">
-        <v>38625</v>
+        <v>27747</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="B35" s="2">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="C35" s="2">
-        <v>616009</v>
+        <v>1130508</v>
       </c>
       <c r="D35" s="3">
-        <v>43805.449317129627</v>
+        <v>44029.662824074076</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
       </c>
       <c r="F35" s="2">
-        <v>4297430</v>
+        <v>7083447</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>234</v>
+        <v>333</v>
       </c>
       <c r="I35">
-        <v>432</v>
+        <v>228</v>
       </c>
       <c r="J35" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>17462</v>
+        <v>13887</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2631,38 +2633,38 @@
         <v>278</v>
       </c>
       <c r="B36" s="2">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="C36" s="2">
-        <v>1130883</v>
+        <v>581087</v>
       </c>
       <c r="D36" s="3">
-        <v>44029.72016203704</v>
+        <v>43790.621238425927</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
       </c>
       <c r="F36" s="2">
-        <v>7085926</v>
+        <v>4088668</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>562</v>
+        <v>322</v>
       </c>
       <c r="I36">
-        <v>295</v>
+        <v>397</v>
       </c>
       <c r="J36" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="M36">
-        <v>27062</v>
+        <v>17462</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2670,38 +2672,38 @@
         <v>278</v>
       </c>
       <c r="B37" s="2">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="C37" s="2">
-        <v>1131966</v>
+        <v>458813</v>
       </c>
       <c r="D37" s="3">
-        <v>44030.432384259257</v>
+        <v>43724.774930555555</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
       </c>
       <c r="F37" s="2">
-        <v>7092513</v>
+        <v>3316564</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="I37">
-        <v>549</v>
+        <v>167</v>
       </c>
       <c r="J37" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="M37">
-        <v>30407</v>
+        <v>13887</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2709,116 +2711,116 @@
         <v>278</v>
       </c>
       <c r="B38" s="2">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="C38" s="2">
-        <v>761977</v>
+        <v>742826</v>
       </c>
       <c r="D38" s="3">
-        <v>43860.428541666668</v>
+        <v>43854.394872685189</v>
       </c>
       <c r="E38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="2">
-        <v>5157727</v>
+        <v>5050179</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>131</v>
+        <v>296</v>
       </c>
       <c r="I38">
-        <v>212</v>
+        <v>319</v>
       </c>
       <c r="J38" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="M38">
-        <v>33636</v>
+        <v>9459</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="B39" s="2">
-        <v>1187</v>
+        <v>1141</v>
       </c>
       <c r="C39" s="2">
-        <v>1069321</v>
+        <v>541865</v>
       </c>
       <c r="D39" s="3">
-        <v>44011.818020833336</v>
+        <v>43771.577511574076</v>
       </c>
       <c r="E39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="2">
-        <v>6707723</v>
+        <v>3856438</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="I39">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="J39" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="M39">
-        <v>6687</v>
+        <v>27747</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="B40" s="2">
-        <v>1137</v>
+        <v>1144</v>
       </c>
       <c r="C40" s="2">
-        <v>1041990</v>
+        <v>574775</v>
       </c>
       <c r="D40" s="3">
-        <v>43999.707569444443</v>
+        <v>43787.735185185185</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
       </c>
       <c r="F40" s="2">
-        <v>6540447</v>
+        <v>4053025</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>660</v>
+        <v>296</v>
       </c>
       <c r="I40">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J40" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="M40">
-        <v>78</v>
+        <v>17462</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2826,623 +2828,623 @@
         <v>28</v>
       </c>
       <c r="B41" s="2">
-        <v>1182</v>
+        <v>1147</v>
       </c>
       <c r="C41" s="2">
-        <v>1121374</v>
+        <v>616009</v>
       </c>
       <c r="D41" s="3">
-        <v>44026.896168981482</v>
+        <v>43805.449317129627</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
       </c>
       <c r="F41" s="2">
-        <v>7026973</v>
+        <v>4297429</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>127</v>
+        <v>294</v>
       </c>
       <c r="I41">
-        <v>579</v>
+        <v>432</v>
       </c>
       <c r="J41" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="M41">
-        <v>16384</v>
+        <v>17462</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>103</v>
+        <v>278</v>
       </c>
       <c r="B42" s="2">
-        <v>1158</v>
+        <v>1141</v>
       </c>
       <c r="C42" s="2">
-        <v>115843</v>
+        <v>141378</v>
       </c>
       <c r="D42" s="3">
-        <v>43480.632719907408</v>
+        <v>43506.690115740741</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
       </c>
       <c r="F42" s="2">
-        <v>977784</v>
+        <v>1139840</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>109</v>
+        <v>285</v>
       </c>
       <c r="I42">
-        <v>197</v>
+        <v>443</v>
       </c>
       <c r="J42" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="M42">
-        <v>6165</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>8972</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>106</v>
+        <v>278</v>
       </c>
       <c r="B43" s="2">
-        <v>1156</v>
+        <v>1144</v>
       </c>
       <c r="C43" s="2">
-        <v>1019422</v>
+        <v>742826</v>
       </c>
       <c r="D43" s="3">
-        <v>43983.692511574074</v>
+        <v>43854.394872685189</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
       </c>
       <c r="F43" s="2">
-        <v>6408753</v>
+        <v>5050178</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>126</v>
+        <v>268</v>
       </c>
       <c r="I43">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="J43" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="M43">
-        <v>40753</v>
+        <v>9459</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="B44" s="2">
-        <v>1187</v>
+        <v>1141</v>
       </c>
       <c r="C44" s="2">
-        <v>910471</v>
+        <v>614595</v>
       </c>
       <c r="D44" s="3">
-        <v>43908.700787037036</v>
+        <v>43804.68172453704</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
       </c>
       <c r="F44" s="2">
-        <v>6007266</v>
+        <v>4289075</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>349</v>
+        <v>247</v>
       </c>
       <c r="I44">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="J44" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="M44">
-        <v>2597</v>
+        <v>13887</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B45" s="2">
-        <v>1137</v>
+        <v>1172</v>
       </c>
       <c r="C45" s="2">
-        <v>368000</v>
+        <v>817740</v>
       </c>
       <c r="D45" s="3">
-        <v>43672.724374999998</v>
+        <v>43877.645590277774</v>
       </c>
       <c r="E45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="2">
-        <v>2715973</v>
+        <v>5481677</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="I45">
-        <v>513</v>
+        <v>256</v>
       </c>
       <c r="J45" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="M45">
-        <v>20445</v>
+        <v>34127</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>278</v>
       </c>
       <c r="B46" s="2">
-        <v>1186</v>
+        <v>1144</v>
       </c>
       <c r="C46" s="2">
-        <v>1019287</v>
+        <v>742826</v>
       </c>
       <c r="D46" s="3">
-        <v>43983.630578703705</v>
+        <v>43854.394872685189</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
       </c>
       <c r="F46" s="2">
-        <v>6407897</v>
+        <v>5050180</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>162</v>
+        <v>242</v>
       </c>
       <c r="I46">
-        <v>513</v>
+        <v>319</v>
       </c>
       <c r="J46" t="s">
-        <v>113</v>
+        <v>210</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" t="s">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c r="M46">
-        <v>30650</v>
+        <v>9459</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>278</v>
+        <v>20</v>
       </c>
       <c r="B47" s="2">
-        <v>1141</v>
+        <v>1170</v>
       </c>
       <c r="C47" s="2">
-        <v>782603</v>
+        <v>691808</v>
       </c>
       <c r="D47" s="3">
-        <v>43867.437268518515</v>
+        <v>43833.757337962961</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
       </c>
       <c r="F47" s="2">
-        <v>5275172</v>
+        <v>4752787</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>143</v>
+        <v>238</v>
       </c>
       <c r="I47">
-        <v>306</v>
+        <v>147</v>
       </c>
       <c r="J47" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>32721</v>
+        <v>16305</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2">
-        <v>1141</v>
+        <v>1187</v>
       </c>
       <c r="C48" s="2">
-        <v>141378</v>
+        <v>1069321</v>
       </c>
       <c r="D48" s="3">
-        <v>43506.690115740741</v>
+        <v>44011.818020833336</v>
       </c>
       <c r="E48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="2">
-        <v>1139840</v>
+        <v>6707723</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="I48">
-        <v>443</v>
+        <v>225</v>
       </c>
       <c r="J48" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="M48">
-        <v>8972</v>
+        <v>6687</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="B49" s="2">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="C49" s="2">
-        <v>64861</v>
+        <v>616009</v>
       </c>
       <c r="D49" s="3">
-        <v>43376.633252314816</v>
+        <v>43805.449317129627</v>
       </c>
       <c r="E49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="2">
-        <v>583103</v>
+        <v>4297430</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="I49">
-        <v>205</v>
+        <v>432</v>
       </c>
       <c r="J49" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="M49">
-        <v>4733</v>
+        <v>17462</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>278</v>
+        <v>35</v>
       </c>
       <c r="B50" s="2">
-        <v>1141</v>
+        <v>1172</v>
       </c>
       <c r="C50" s="2">
-        <v>326738</v>
+        <v>761920</v>
       </c>
       <c r="D50" s="3">
-        <v>43647.641493055555</v>
+        <v>43860.418807870374</v>
       </c>
       <c r="E50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="2">
-        <v>2437871</v>
+        <v>5157429</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="I50">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="J50" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="M50">
-        <v>10150</v>
+        <v>33636</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="B51" s="2">
-        <v>1187</v>
+        <v>1137</v>
       </c>
       <c r="C51" s="2">
-        <v>1069321</v>
+        <v>662597</v>
       </c>
       <c r="D51" s="3">
-        <v>44011.818020833336</v>
+        <v>43822.661793981482</v>
       </c>
       <c r="E51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="2">
-        <v>6707720</v>
+        <v>4575118</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="I51">
-        <v>225</v>
+        <v>728</v>
       </c>
       <c r="J51" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="M51">
-        <v>6687</v>
+        <v>20445</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="B52" s="2">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="C52" s="2">
-        <v>1103046</v>
+        <v>207484</v>
       </c>
       <c r="D52" s="3">
-        <v>44021.7422337963</v>
+        <v>43556.740428240744</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
       </c>
       <c r="F52" s="2">
-        <v>6908914</v>
+        <v>1596944</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>427</v>
+        <v>219</v>
       </c>
       <c r="I52">
-        <v>649</v>
+        <v>290</v>
       </c>
       <c r="J52" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="M52">
-        <v>26490</v>
+        <v>10802</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="B53" s="2">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="C53" s="2">
-        <v>499238</v>
+        <v>812037</v>
       </c>
       <c r="D53" s="3">
-        <v>43743.663252314815</v>
+        <v>43875.516643518517</v>
       </c>
       <c r="E53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="2">
-        <v>3580433</v>
+        <v>5445228</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="I53">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="J53" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="M53">
-        <v>25856</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>30004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="B54" s="2">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="C54" s="2">
-        <v>291792</v>
+        <v>772343</v>
       </c>
       <c r="D54" s="3">
-        <v>43622.458344907405</v>
+        <v>43863.615752314814</v>
       </c>
       <c r="E54" s="2">
         <v>1</v>
       </c>
       <c r="F54" s="2">
-        <v>2196156</v>
+        <v>5217288</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>100</v>
+        <v>214</v>
       </c>
       <c r="I54">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="J54" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="M54">
-        <v>13127</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>32271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>131</v>
+        <v>278</v>
       </c>
       <c r="B55" s="2">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="C55" s="2">
-        <v>510141</v>
+        <v>1108143</v>
       </c>
       <c r="D55" s="3">
-        <v>43749.671805555554</v>
+        <v>44023.397453703707</v>
       </c>
       <c r="E55" s="2">
         <v>1</v>
       </c>
       <c r="F55" s="2">
-        <v>3657695</v>
+        <v>6939516</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="I55">
-        <v>310</v>
+        <v>599</v>
       </c>
       <c r="J55" t="s">
-        <v>132</v>
+        <v>240</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" t="s">
-        <v>133</v>
+        <v>241</v>
       </c>
       <c r="M55">
-        <v>21442</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>42095</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B56" s="2">
-        <v>1173</v>
+        <v>1182</v>
       </c>
       <c r="C56" s="2">
-        <v>146150</v>
+        <v>812037</v>
       </c>
       <c r="D56" s="3">
-        <v>43509.993425925924</v>
+        <v>43875.516643518517</v>
       </c>
       <c r="E56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2">
-        <v>1171027</v>
+        <v>5445232</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>110</v>
+        <v>211</v>
       </c>
       <c r="I56">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="J56" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="K56" s="4"/>
       <c r="L56" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="M56">
-        <v>9157</v>
+        <v>30004</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -3450,38 +3452,38 @@
         <v>278</v>
       </c>
       <c r="B57" s="2">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="C57" s="2">
-        <v>742826</v>
+        <v>1164255</v>
       </c>
       <c r="D57" s="3">
-        <v>43854.394872685189</v>
+        <v>44038.5</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
       </c>
       <c r="F57" s="2">
-        <v>5050179</v>
+        <v>7278806</v>
       </c>
       <c r="G57" s="2">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>296</v>
+        <v>210</v>
       </c>
       <c r="I57">
-        <v>319</v>
+        <v>649</v>
       </c>
       <c r="J57" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="M57">
-        <v>9459</v>
+        <v>38625</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -3492,35 +3494,35 @@
         <v>1141</v>
       </c>
       <c r="C58" s="2">
-        <v>802671</v>
+        <v>463363</v>
       </c>
       <c r="D58" s="3">
-        <v>43872.683749999997</v>
+        <v>43726.865266203706</v>
       </c>
       <c r="E58" s="2">
         <v>1</v>
       </c>
       <c r="F58" s="2">
-        <v>5390629</v>
+        <v>3345744</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="I58">
-        <v>315</v>
+        <v>181</v>
       </c>
       <c r="J58" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="M58">
-        <v>40061</v>
+        <v>8013</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -3528,155 +3530,155 @@
         <v>28</v>
       </c>
       <c r="B59" s="2">
-        <v>1147</v>
+        <v>1182</v>
       </c>
       <c r="C59" s="2">
-        <v>544674</v>
+        <v>926898</v>
       </c>
       <c r="D59" s="3">
-        <v>43773.696527777778</v>
+        <v>43913.693055555559</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
       </c>
       <c r="F59" s="2">
-        <v>3874602</v>
+        <v>6094875</v>
       </c>
       <c r="G59" s="2">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>424</v>
+        <v>192</v>
       </c>
       <c r="I59">
-        <v>228</v>
+        <v>457</v>
       </c>
       <c r="J59" t="s">
-        <v>140</v>
+        <v>266</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" t="s">
-        <v>141</v>
+        <v>267</v>
       </c>
       <c r="M59">
-        <v>27747</v>
+        <v>17313</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2">
-        <v>1147</v>
+        <v>1187</v>
       </c>
       <c r="C60" s="2">
-        <v>367028</v>
+        <v>499238</v>
       </c>
       <c r="D60" s="3">
-        <v>43672.504317129627</v>
+        <v>43743.663252314815</v>
       </c>
       <c r="E60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="2">
-        <v>2709405</v>
+        <v>3580433</v>
       </c>
       <c r="G60" s="2">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>928</v>
+        <v>191</v>
       </c>
       <c r="I60">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="J60" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="M60">
-        <v>13019</v>
+        <v>25856</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B61" s="2">
-        <v>1172</v>
+        <v>1186</v>
       </c>
       <c r="C61" s="2">
-        <v>817740</v>
+        <v>1017569</v>
       </c>
       <c r="D61" s="3">
-        <v>43877.645590277774</v>
+        <v>43981.628101851849</v>
       </c>
       <c r="E61" s="2">
         <v>1</v>
       </c>
       <c r="F61" s="2">
-        <v>5481677</v>
+        <v>6397212</v>
       </c>
       <c r="G61" s="2">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="I61">
-        <v>256</v>
+        <v>394</v>
       </c>
       <c r="J61" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="M61">
-        <v>34127</v>
+        <v>30650</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>278</v>
+        <v>71</v>
       </c>
       <c r="B62" s="2">
-        <v>1141</v>
+        <v>1157</v>
       </c>
       <c r="C62" s="2">
-        <v>541865</v>
+        <v>853706</v>
       </c>
       <c r="D62" s="3">
-        <v>43771.577511574076</v>
+        <v>43890.435057870367</v>
       </c>
       <c r="E62" s="2">
         <v>1</v>
       </c>
       <c r="F62" s="2">
-        <v>3856438</v>
+        <v>5689793</v>
       </c>
       <c r="G62" s="2">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>296</v>
+        <v>183</v>
       </c>
       <c r="I62">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="J62" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="M62">
-        <v>27747</v>
+        <v>35596</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -3687,620 +3689,620 @@
         <v>1182</v>
       </c>
       <c r="C63" s="2">
-        <v>1160155</v>
+        <v>1142470</v>
       </c>
       <c r="D63" s="3">
-        <v>44037.520798611113</v>
+        <v>44033.626944444448</v>
       </c>
       <c r="E63" s="2">
         <v>1</v>
       </c>
       <c r="F63" s="2">
-        <v>7257436</v>
+        <v>7157871</v>
       </c>
       <c r="G63" s="2">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="I63">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J63" t="s">
-        <v>148</v>
+        <v>264</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" t="s">
-        <v>149</v>
+        <v>265</v>
       </c>
       <c r="M63">
-        <v>43544</v>
+        <v>37160</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="B64" s="2">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="C64" s="2">
-        <v>581087</v>
+        <v>1147528</v>
       </c>
       <c r="D64" s="3">
-        <v>43790.621238425927</v>
+        <v>44034.699756944443</v>
       </c>
       <c r="E64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="2">
-        <v>4088668</v>
+        <v>7190079</v>
       </c>
       <c r="G64" s="2">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>322</v>
+        <v>175</v>
       </c>
       <c r="I64">
-        <v>397</v>
+        <v>240</v>
       </c>
       <c r="J64" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="M64">
-        <v>17462</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7783</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>278</v>
+        <v>131</v>
       </c>
       <c r="B65" s="2">
-        <v>1141</v>
+        <v>1146</v>
       </c>
       <c r="C65" s="2">
-        <v>818852</v>
+        <v>510141</v>
       </c>
       <c r="D65" s="3">
-        <v>43878.588425925926</v>
+        <v>43749.671805555554</v>
       </c>
       <c r="E65" s="2">
         <v>1</v>
       </c>
       <c r="F65" s="2">
-        <v>5488218</v>
+        <v>3657695</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="I65">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="J65" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="K65" s="4"/>
       <c r="L65" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="M65">
-        <v>34900</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>21442</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="B66" s="2">
-        <v>1182</v>
+        <v>1163</v>
       </c>
       <c r="C66" s="2">
-        <v>616563</v>
+        <v>1132813</v>
       </c>
       <c r="D66" s="3">
-        <v>43805.517453703702</v>
+        <v>44030.565879629627</v>
       </c>
       <c r="E66" s="2">
         <v>1</v>
       </c>
       <c r="F66" s="2">
-        <v>4300893</v>
+        <v>7097408</v>
       </c>
       <c r="G66" s="2">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>492</v>
+        <v>174</v>
       </c>
       <c r="I66">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="J66" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="K66" s="4"/>
       <c r="L66" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="M66">
-        <v>30004</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>25856</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>278</v>
+        <v>15</v>
       </c>
       <c r="B67" s="2">
-        <v>1141</v>
+        <v>1173</v>
       </c>
       <c r="C67" s="2">
-        <v>541569</v>
+        <v>217429</v>
       </c>
       <c r="D67" s="3">
-        <v>43771.507430555554</v>
+        <v>43565.466597222221</v>
       </c>
       <c r="E67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="2">
-        <v>3854620</v>
+        <v>1667456</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="I67">
-        <v>360</v>
+        <v>242</v>
       </c>
       <c r="J67" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="M67">
-        <v>27177</v>
+        <v>9157</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B68" s="2">
-        <v>1187</v>
+        <v>1152</v>
       </c>
       <c r="C68" s="2">
-        <v>385973</v>
+        <v>443969</v>
       </c>
       <c r="D68" s="3">
-        <v>43684.766111111108</v>
+        <v>43718.542094907411</v>
       </c>
       <c r="E68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" s="2">
-        <v>2842023</v>
+        <v>3222558</v>
       </c>
       <c r="G68" s="2">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>854</v>
+        <v>172</v>
       </c>
       <c r="I68">
-        <v>215</v>
+        <v>404</v>
       </c>
       <c r="J68" t="s">
-        <v>158</v>
+        <v>260</v>
       </c>
       <c r="K68" s="4"/>
       <c r="L68" t="s">
-        <v>159</v>
+        <v>261</v>
       </c>
       <c r="M68">
-        <v>1073</v>
+        <v>16305</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="B69" s="2">
-        <v>1170</v>
+        <v>1141</v>
       </c>
       <c r="C69" s="2">
-        <v>722410</v>
+        <v>863915</v>
       </c>
       <c r="D69" s="3">
-        <v>43846.694224537037</v>
+        <v>43894.426608796297</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
       </c>
       <c r="F69" s="2">
-        <v>4935248</v>
+        <v>5746584</v>
       </c>
       <c r="G69" s="2">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>696</v>
+        <v>171</v>
       </c>
       <c r="I69">
-        <v>191</v>
+        <v>308</v>
       </c>
       <c r="J69" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="K69" s="4"/>
       <c r="L69" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="M69">
-        <v>17403</v>
+        <v>27062</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2">
-        <v>1172</v>
+        <v>1187</v>
       </c>
       <c r="C70" s="2">
-        <v>1133496</v>
+        <v>1069321</v>
       </c>
       <c r="D70" s="3">
-        <v>44030.680902777778</v>
+        <v>44011.818020833336</v>
       </c>
       <c r="E70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" s="2">
-        <v>7101661</v>
+        <v>6707720</v>
       </c>
       <c r="G70" s="2">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I70">
         <v>225</v>
       </c>
       <c r="J70" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="K70" s="4"/>
       <c r="L70" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="M70">
-        <v>16305</v>
+        <v>6687</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="B71" s="2">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="C71" s="2">
-        <v>1259527</v>
+        <v>1060082</v>
       </c>
       <c r="D71" s="3">
-        <v>44057.457002314812</v>
+        <v>44007.624594907407</v>
       </c>
       <c r="E71" s="2">
         <v>1</v>
       </c>
       <c r="F71" s="2">
-        <v>7733160</v>
+        <v>6651361</v>
       </c>
       <c r="G71" s="2">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="I71">
-        <v>399</v>
+        <v>549</v>
       </c>
       <c r="J71" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="K71" s="4"/>
       <c r="L71" t="s">
+        <v>175</v>
+      </c>
+      <c r="M71">
+        <v>42095</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1173</v>
+      </c>
+      <c r="C72" s="2">
+        <v>141691</v>
+      </c>
+      <c r="D72" s="3">
+        <v>43507.438773148147</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2">
+        <v>1141838</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1</v>
+      </c>
+      <c r="H72">
         <v>165</v>
       </c>
-      <c r="M71">
-        <v>43841</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B72" s="2">
-        <v>1147</v>
-      </c>
-      <c r="C72" s="2">
-        <v>858860</v>
-      </c>
-      <c r="D72" s="3">
-        <v>43892.668599537035</v>
-      </c>
-      <c r="E72" s="2">
-        <v>1</v>
-      </c>
-      <c r="F72" s="2">
-        <v>5718966</v>
-      </c>
-      <c r="G72" s="2">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>118</v>
-      </c>
       <c r="I72">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="J72" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="M72">
-        <v>4618</v>
+        <v>9157</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="B73" s="2">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C73" s="2">
-        <v>228732</v>
+        <v>1019287</v>
       </c>
       <c r="D73" s="3">
-        <v>43573.503564814811</v>
+        <v>43983.630578703705</v>
       </c>
       <c r="E73" s="2">
         <v>1</v>
       </c>
       <c r="F73" s="2">
-        <v>1745582</v>
+        <v>6407897</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>394</v>
+        <v>162</v>
       </c>
       <c r="I73">
-        <v>250</v>
+        <v>513</v>
       </c>
       <c r="J73" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="M73">
-        <v>6687</v>
+        <v>30650</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B74" s="2">
-        <v>1137</v>
+        <v>1172</v>
       </c>
       <c r="C74" s="2">
-        <v>1041990</v>
+        <v>1133496</v>
       </c>
       <c r="D74" s="3">
-        <v>43999.707569444443</v>
+        <v>44030.680902777778</v>
       </c>
       <c r="E74" s="2">
         <v>1</v>
       </c>
       <c r="F74" s="2">
-        <v>6540446</v>
+        <v>7101661</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>840</v>
+        <v>162</v>
       </c>
       <c r="I74">
-        <v>399</v>
+        <v>225</v>
       </c>
       <c r="J74" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="K74" s="4"/>
       <c r="L74" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="M74">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>16305</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="B75" s="2">
-        <v>1173</v>
+        <v>1144</v>
       </c>
       <c r="C75" s="2">
-        <v>141691</v>
+        <v>576406</v>
       </c>
       <c r="D75" s="3">
-        <v>43507.438773148147</v>
+        <v>43788.567523148151</v>
       </c>
       <c r="E75" s="2">
         <v>1</v>
       </c>
       <c r="F75" s="2">
-        <v>1141836</v>
+        <v>4062251</v>
       </c>
       <c r="G75" s="2">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="I75">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c r="J75" t="s">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c r="K75" s="4"/>
       <c r="L75" t="s">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c r="M75">
-        <v>9157</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13887</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>278</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2">
-        <v>1141</v>
+        <v>1156</v>
       </c>
       <c r="C76" s="2">
-        <v>1060082</v>
+        <v>671958</v>
       </c>
       <c r="D76" s="3">
-        <v>44007.624594907407</v>
+        <v>43825.710543981484</v>
       </c>
       <c r="E76" s="2">
         <v>1</v>
       </c>
       <c r="F76" s="2">
-        <v>6651361</v>
+        <v>4634470</v>
       </c>
       <c r="G76" s="2">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="I76">
-        <v>549</v>
+        <v>262</v>
       </c>
       <c r="J76" t="s">
-        <v>174</v>
+        <v>226</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="M76">
-        <v>42095</v>
+        <v>11260</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="B77" s="2">
-        <v>1187</v>
+        <v>1141</v>
       </c>
       <c r="C77" s="2">
-        <v>756689</v>
+        <v>755566</v>
       </c>
       <c r="D77" s="3">
-        <v>43858.622094907405</v>
+        <v>43858.466782407406</v>
       </c>
       <c r="E77" s="2">
         <v>1</v>
       </c>
       <c r="F77" s="2">
-        <v>5127186</v>
+        <v>5120556</v>
       </c>
       <c r="G77" s="2">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>364</v>
+        <v>155</v>
       </c>
       <c r="I77">
-        <v>176</v>
+        <v>314</v>
       </c>
       <c r="J77" t="s">
-        <v>176</v>
+        <v>51</v>
       </c>
       <c r="K77" s="4"/>
       <c r="L77" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="M77">
-        <v>25856</v>
+        <v>32721</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B78" s="2">
-        <v>1137</v>
+        <v>1147</v>
       </c>
       <c r="C78" s="2">
-        <v>662597</v>
+        <v>38362</v>
       </c>
       <c r="D78" s="3">
-        <v>43822.661793981482</v>
+        <v>43299.608414351853</v>
       </c>
       <c r="E78" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" s="2">
-        <v>4575118</v>
+        <v>359030</v>
       </c>
       <c r="G78" s="2">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="I78">
-        <v>728</v>
+        <v>364</v>
       </c>
       <c r="J78" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="M78">
-        <v>20445</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -4311,74 +4313,74 @@
         <v>1144</v>
       </c>
       <c r="C79" s="2">
-        <v>566637</v>
+        <v>460388</v>
       </c>
       <c r="D79" s="3">
-        <v>43784.669444444444</v>
+        <v>43725.666631944441</v>
       </c>
       <c r="E79" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="2">
-        <v>4006490</v>
+        <v>3326705</v>
       </c>
       <c r="G79" s="2">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="I79">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="J79" t="s">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="K79" s="4"/>
       <c r="L79" t="s">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="M79">
-        <v>13119</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13887</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>182</v>
+        <v>28</v>
       </c>
       <c r="B80" s="2">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C80" s="2">
-        <v>772343</v>
+        <v>673689</v>
       </c>
       <c r="D80" s="3">
-        <v>43863.615752314814</v>
+        <v>43826.503182870372</v>
       </c>
       <c r="E80" s="2">
         <v>1</v>
       </c>
       <c r="F80" s="2">
-        <v>5217288</v>
+        <v>4644973</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>214</v>
+        <v>149</v>
       </c>
       <c r="I80">
-        <v>332</v>
+        <v>385</v>
       </c>
       <c r="J80" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="K80" s="4"/>
       <c r="L80" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="M80">
-        <v>32271</v>
+        <v>26162</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -4386,77 +4388,77 @@
         <v>278</v>
       </c>
       <c r="B81" s="2">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="C81" s="2">
-        <v>287573</v>
+        <v>802671</v>
       </c>
       <c r="D81" s="3">
-        <v>43619.413506944446</v>
+        <v>43872.683749999997</v>
       </c>
       <c r="E81" s="2">
         <v>1</v>
       </c>
       <c r="F81" s="2">
-        <v>2166563</v>
+        <v>5390629</v>
       </c>
       <c r="G81" s="2">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="I81">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="J81" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="K81" s="4"/>
       <c r="L81" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="M81">
-        <v>16305</v>
+        <v>40061</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="B82" s="2">
-        <v>1141</v>
+        <v>1182</v>
       </c>
       <c r="C82" s="2">
-        <v>514996</v>
+        <v>1159309</v>
       </c>
       <c r="D82" s="3">
-        <v>43752.759837962964</v>
+        <v>44037.440358796295</v>
       </c>
       <c r="E82" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" s="2">
-        <v>3689200</v>
+        <v>7253163</v>
       </c>
       <c r="G82" s="2">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>456</v>
+        <v>145</v>
       </c>
       <c r="I82">
-        <v>189</v>
+        <v>260</v>
       </c>
       <c r="J82" t="s">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="K82" s="4"/>
       <c r="L82" t="s">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="M82">
-        <v>26403</v>
+        <v>7783</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -4467,191 +4469,191 @@
         <v>1141</v>
       </c>
       <c r="C83" s="2">
-        <v>1045093</v>
+        <v>782603</v>
       </c>
       <c r="D83" s="3">
-        <v>44001.625833333332</v>
+        <v>43867.437268518515</v>
       </c>
       <c r="E83" s="2">
         <v>1</v>
       </c>
       <c r="F83" s="2">
-        <v>6559708</v>
+        <v>5275172</v>
       </c>
       <c r="G83" s="2">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>1427</v>
+        <v>143</v>
       </c>
       <c r="I83">
-        <v>495</v>
+        <v>306</v>
       </c>
       <c r="J83" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="K83" s="4"/>
       <c r="L83" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="M83">
-        <v>27062</v>
+        <v>32721</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="B84" s="2">
-        <v>1182</v>
+        <v>1141</v>
       </c>
       <c r="C84" s="2">
-        <v>926898</v>
+        <v>541569</v>
       </c>
       <c r="D84" s="3">
-        <v>43913.693055555559</v>
+        <v>43771.507430555554</v>
       </c>
       <c r="E84" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" s="2">
-        <v>6094877</v>
+        <v>3854620</v>
       </c>
       <c r="G84" s="2">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>388</v>
+        <v>143</v>
       </c>
       <c r="I84">
-        <v>457</v>
+        <v>360</v>
       </c>
       <c r="J84" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="K84" s="4"/>
       <c r="L84" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="M84">
-        <v>17313</v>
+        <v>27177</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="B85" s="2">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C85" s="2">
-        <v>1193982</v>
+        <v>641734</v>
       </c>
       <c r="D85" s="3">
-        <v>44044.679745370369</v>
+        <v>43815.432812500003</v>
       </c>
       <c r="E85" s="2">
         <v>1</v>
       </c>
       <c r="F85" s="2">
-        <v>7430487</v>
+        <v>4451689</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>1434</v>
+        <v>143</v>
       </c>
       <c r="I85">
-        <v>399</v>
+        <v>178</v>
       </c>
       <c r="J85" t="s">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="K85" s="4"/>
       <c r="L85" t="s">
-        <v>194</v>
+        <v>271</v>
       </c>
       <c r="M85">
-        <v>43841</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13887</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="B86" s="2">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="C86" s="2">
-        <v>1132813</v>
+        <v>115843</v>
       </c>
       <c r="D86" s="3">
-        <v>44030.565879629627</v>
+        <v>43480.632719907408</v>
       </c>
       <c r="E86" s="2">
         <v>1</v>
       </c>
       <c r="F86" s="2">
-        <v>7097408</v>
+        <v>977786</v>
       </c>
       <c r="G86" s="2">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="I86">
-        <v>289</v>
+        <v>204</v>
       </c>
       <c r="J86" t="s">
-        <v>196</v>
+        <v>274</v>
       </c>
       <c r="K86" s="4"/>
       <c r="L86" t="s">
-        <v>197</v>
+        <v>275</v>
       </c>
       <c r="M86">
-        <v>25856</v>
+        <v>6165</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B87" s="2">
-        <v>1170</v>
+        <v>1137</v>
       </c>
       <c r="C87" s="2">
-        <v>431651</v>
+        <v>368000</v>
       </c>
       <c r="D87" s="3">
-        <v>43711.530185185184</v>
+        <v>43672.724374999998</v>
       </c>
       <c r="E87" s="2">
         <v>0</v>
       </c>
       <c r="F87" s="2">
-        <v>3145241</v>
+        <v>2715973</v>
       </c>
       <c r="G87" s="2">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="I87">
-        <v>191</v>
+        <v>513</v>
       </c>
       <c r="J87" t="s">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c r="K87" s="4"/>
       <c r="L87" t="s">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="M87">
-        <v>17403</v>
+        <v>20445</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -4662,74 +4664,74 @@
         <v>1144</v>
       </c>
       <c r="C88" s="2">
-        <v>574775</v>
+        <v>576406</v>
       </c>
       <c r="D88" s="3">
-        <v>43787.735185185185</v>
+        <v>43788.567523148151</v>
       </c>
       <c r="E88" s="2">
         <v>1</v>
       </c>
       <c r="F88" s="2">
-        <v>4053025</v>
+        <v>4062252</v>
       </c>
       <c r="G88" s="2">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>296</v>
+        <v>135</v>
       </c>
       <c r="I88">
-        <v>400</v>
+        <v>187</v>
       </c>
       <c r="J88" t="s">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="K88" s="4"/>
       <c r="L88" t="s">
-        <v>201</v>
+        <v>24</v>
       </c>
       <c r="M88">
-        <v>17462</v>
+        <v>13887</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>278</v>
+        <v>64</v>
       </c>
       <c r="B89" s="2">
-        <v>1141</v>
+        <v>1152</v>
       </c>
       <c r="C89" s="2">
-        <v>567386</v>
+        <v>738420</v>
       </c>
       <c r="D89" s="3">
-        <v>43784.751030092593</v>
+        <v>43852.684259259258</v>
       </c>
       <c r="E89" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" s="2">
-        <v>4010584</v>
+        <v>5026227</v>
       </c>
       <c r="G89" s="2">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I89">
-        <v>347</v>
+        <v>422</v>
       </c>
       <c r="J89" t="s">
-        <v>202</v>
+        <v>65</v>
       </c>
       <c r="K89" s="4"/>
       <c r="L89" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="M89">
-        <v>14522</v>
+        <v>6559</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -4740,698 +4742,698 @@
         <v>1144</v>
       </c>
       <c r="C90" s="2">
-        <v>148035</v>
+        <v>287573</v>
       </c>
       <c r="D90" s="3">
-        <v>43511.51798611111</v>
+        <v>43619.413506944446</v>
       </c>
       <c r="E90" s="2">
         <v>1</v>
       </c>
       <c r="F90" s="2">
-        <v>1183659</v>
+        <v>2166563</v>
       </c>
       <c r="G90" s="2">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="I90">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="J90" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="K90" s="4"/>
       <c r="L90" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="M90">
-        <v>6559</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>16305</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="B91" s="2">
-        <v>1173</v>
+        <v>1141</v>
       </c>
       <c r="C91" s="2">
-        <v>1133306</v>
+        <v>761977</v>
       </c>
       <c r="D91" s="3">
-        <v>44030.651493055557</v>
+        <v>43860.428541666668</v>
       </c>
       <c r="E91" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" s="2">
-        <v>7100419</v>
+        <v>5157727</v>
       </c>
       <c r="G91" s="2">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="I91">
-        <v>379</v>
+        <v>212</v>
       </c>
       <c r="J91" t="s">
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="K91" s="4"/>
       <c r="L91" t="s">
-        <v>207</v>
+        <v>95</v>
       </c>
       <c r="M91">
-        <v>21442</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>33636</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="B92" s="2">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C92" s="2">
-        <v>1099110</v>
+        <v>567386</v>
       </c>
       <c r="D92" s="3">
-        <v>44020.74113425926</v>
+        <v>43784.751030092593</v>
       </c>
       <c r="E92" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" s="2">
-        <v>6884421</v>
+        <v>4010584</v>
       </c>
       <c r="G92" s="2">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="I92">
-        <v>199</v>
+        <v>347</v>
       </c>
       <c r="J92" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K92" s="4"/>
       <c r="L92" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M92">
-        <v>40109</v>
+        <v>14522</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="B93" s="2">
-        <v>1144</v>
+        <v>1182</v>
       </c>
       <c r="C93" s="2">
-        <v>742826</v>
+        <v>1121374</v>
       </c>
       <c r="D93" s="3">
-        <v>43854.394872685189</v>
+        <v>44026.896168981482</v>
       </c>
       <c r="E93" s="2">
         <v>1</v>
       </c>
       <c r="F93" s="2">
-        <v>5050180</v>
+        <v>7026973</v>
       </c>
       <c r="G93" s="2">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>242</v>
+        <v>127</v>
       </c>
       <c r="I93">
-        <v>319</v>
+        <v>579</v>
       </c>
       <c r="J93" t="s">
-        <v>210</v>
+        <v>101</v>
       </c>
       <c r="K93" s="4"/>
       <c r="L93" t="s">
-        <v>211</v>
+        <v>102</v>
       </c>
       <c r="M93">
-        <v>9459</v>
+        <v>16384</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="B94" s="2">
-        <v>1182</v>
+        <v>1144</v>
       </c>
       <c r="C94" s="2">
-        <v>812037</v>
+        <v>566637</v>
       </c>
       <c r="D94" s="3">
-        <v>43875.516643518517</v>
+        <v>43784.669444444444</v>
       </c>
       <c r="E94" s="2">
         <v>0</v>
       </c>
       <c r="F94" s="2">
-        <v>5445232</v>
+        <v>4006490</v>
       </c>
       <c r="G94" s="2">
         <v>1</v>
       </c>
       <c r="H94">
+        <v>127</v>
+      </c>
+      <c r="I94">
         <v>211</v>
       </c>
-      <c r="I94">
-        <v>234</v>
-      </c>
       <c r="J94" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="K94" s="4"/>
       <c r="L94" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="M94">
-        <v>30004</v>
+        <v>13119</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="B95" s="2">
-        <v>1137</v>
+        <v>1144</v>
       </c>
       <c r="C95" s="2">
-        <v>772186</v>
+        <v>287573</v>
       </c>
       <c r="D95" s="3">
-        <v>43863.581030092595</v>
+        <v>43619.413506944446</v>
       </c>
       <c r="E95" s="2">
         <v>1</v>
       </c>
       <c r="F95" s="2">
-        <v>5216442</v>
+        <v>2166562</v>
       </c>
       <c r="G95" s="2">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>394</v>
+        <v>127</v>
       </c>
       <c r="I95">
-        <v>644</v>
+        <v>294</v>
       </c>
       <c r="J95" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="K95" s="4"/>
       <c r="L95" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="M95">
-        <v>20445</v>
+        <v>16305</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2">
-        <v>1173</v>
+        <v>1156</v>
       </c>
       <c r="C96" s="2">
-        <v>141691</v>
+        <v>1019422</v>
       </c>
       <c r="D96" s="3">
-        <v>43507.438773148147</v>
+        <v>43983.692511574074</v>
       </c>
       <c r="E96" s="2">
         <v>1</v>
       </c>
       <c r="F96" s="2">
-        <v>1141838</v>
+        <v>6408753</v>
       </c>
       <c r="G96" s="2">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="I96">
-        <v>257</v>
+        <v>323</v>
       </c>
       <c r="J96" t="s">
-        <v>216</v>
+        <v>107</v>
       </c>
       <c r="K96" s="4"/>
       <c r="L96" t="s">
-        <v>217</v>
+        <v>108</v>
       </c>
       <c r="M96">
-        <v>9157</v>
+        <v>40753</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="B97" s="2">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="C97" s="2">
-        <v>544297</v>
+        <v>38362</v>
       </c>
       <c r="D97" s="3">
-        <v>43773.613599537035</v>
+        <v>43299.608414351853</v>
       </c>
       <c r="E97" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" s="2">
-        <v>3872330</v>
+        <v>359029</v>
       </c>
       <c r="G97" s="2">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="I97">
-        <v>225</v>
+        <v>364</v>
       </c>
       <c r="J97" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="K97" s="4"/>
       <c r="L97" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="M97">
-        <v>13119</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="B98" s="2">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="C98" s="2">
-        <v>891894</v>
+        <v>326738</v>
       </c>
       <c r="D98" s="3">
-        <v>43903.567280092589</v>
+        <v>43647.641493055555</v>
       </c>
       <c r="E98" s="2">
         <v>1</v>
       </c>
       <c r="F98" s="2">
-        <v>5903680</v>
+        <v>2437871</v>
       </c>
       <c r="G98" s="2">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>842</v>
+        <v>124</v>
       </c>
       <c r="I98">
-        <v>382</v>
+        <v>212</v>
       </c>
       <c r="J98" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="K98" s="4"/>
       <c r="L98" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="M98">
-        <v>3340</v>
+        <v>10150</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="B99" s="2">
-        <v>1182</v>
+        <v>1141</v>
       </c>
       <c r="C99" s="2">
-        <v>753767</v>
+        <v>541569</v>
       </c>
       <c r="D99" s="3">
-        <v>43857.628275462965</v>
+        <v>43771.507430555554</v>
       </c>
       <c r="E99" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" s="2">
-        <v>5110714</v>
+        <v>3854621</v>
       </c>
       <c r="G99" s="2">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>476</v>
+        <v>122</v>
       </c>
       <c r="I99">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="J99" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K99" s="4"/>
       <c r="L99" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M99">
-        <v>30004</v>
+        <v>27177</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>278</v>
+        <v>38</v>
       </c>
       <c r="B100" s="2">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="C100" s="2">
-        <v>541865</v>
+        <v>1158749</v>
       </c>
       <c r="D100" s="3">
-        <v>43771.577511574076</v>
+        <v>44037.347025462965</v>
       </c>
       <c r="E100" s="2">
         <v>1</v>
       </c>
       <c r="F100" s="2">
-        <v>3856436</v>
+        <v>7250283</v>
       </c>
       <c r="G100" s="2">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>338</v>
+        <v>119</v>
       </c>
       <c r="I100">
-        <v>208</v>
+        <v>1099</v>
       </c>
       <c r="J100" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="K100" s="4"/>
       <c r="L100" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="M100">
-        <v>27747</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>38205</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B101" s="2">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="C101" s="2">
-        <v>671958</v>
+        <v>858860</v>
       </c>
       <c r="D101" s="3">
-        <v>43825.710543981484</v>
+        <v>43892.668599537035</v>
       </c>
       <c r="E101" s="2">
         <v>1</v>
       </c>
       <c r="F101" s="2">
-        <v>4634470</v>
+        <v>5718966</v>
       </c>
       <c r="G101" s="2">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="I101">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J101" t="s">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="K101" s="4"/>
       <c r="L101" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="M101">
-        <v>11260</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="B102" s="2">
-        <v>1141</v>
+        <v>1182</v>
       </c>
       <c r="C102" s="2">
-        <v>541569</v>
+        <v>1160155</v>
       </c>
       <c r="D102" s="3">
-        <v>43771.507430555554</v>
+        <v>44037.520798611113</v>
       </c>
       <c r="E102" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" s="2">
-        <v>3854621</v>
+        <v>7257436</v>
       </c>
       <c r="G102" s="2">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I102">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="J102" t="s">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="K102" s="4"/>
       <c r="L102" t="s">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="M102">
-        <v>27177</v>
+        <v>43544</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="B103" s="2">
-        <v>1187</v>
+        <v>1141</v>
       </c>
       <c r="C103" s="2">
-        <v>228732</v>
+        <v>544297</v>
       </c>
       <c r="D103" s="3">
-        <v>43573.503564814811</v>
+        <v>43773.613599537035</v>
       </c>
       <c r="E103" s="2">
         <v>1</v>
       </c>
       <c r="F103" s="2">
-        <v>1745575</v>
+        <v>3872330</v>
       </c>
       <c r="G103" s="2">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>380</v>
+        <v>116</v>
       </c>
       <c r="I103">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="J103" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="K103" s="4"/>
       <c r="L103" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="M103">
-        <v>6687</v>
+        <v>13119</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>278</v>
+        <v>61</v>
       </c>
       <c r="B104" s="2">
-        <v>1144</v>
+        <v>1186</v>
       </c>
       <c r="C104" s="2">
-        <v>287573</v>
+        <v>1017569</v>
       </c>
       <c r="D104" s="3">
-        <v>43619.413506944446</v>
+        <v>43981.628101851849</v>
       </c>
       <c r="E104" s="2">
         <v>1</v>
       </c>
       <c r="F104" s="2">
-        <v>2166562</v>
+        <v>6397214</v>
       </c>
       <c r="G104" s="2">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="I104">
-        <v>294</v>
+        <v>394</v>
       </c>
       <c r="J104" t="s">
-        <v>232</v>
+        <v>62</v>
       </c>
       <c r="K104" s="4"/>
       <c r="L104" t="s">
-        <v>233</v>
+        <v>63</v>
       </c>
       <c r="M104">
-        <v>16305</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>30650</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B105" s="2">
-        <v>1147</v>
+        <v>1173</v>
       </c>
       <c r="C105" s="2">
-        <v>367028</v>
+        <v>146150</v>
       </c>
       <c r="D105" s="3">
-        <v>43672.504317129627</v>
+        <v>43509.993425925924</v>
       </c>
       <c r="E105" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" s="2">
-        <v>2709404</v>
+        <v>1171027</v>
       </c>
       <c r="G105" s="2">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>647</v>
+        <v>110</v>
       </c>
       <c r="I105">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J105" t="s">
-        <v>234</v>
+        <v>134</v>
       </c>
       <c r="K105" s="4"/>
       <c r="L105" t="s">
-        <v>235</v>
+        <v>135</v>
       </c>
       <c r="M105">
-        <v>13019</v>
+        <v>9157</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="B106" s="2">
-        <v>1147</v>
+        <v>1158</v>
       </c>
       <c r="C106" s="2">
-        <v>38362</v>
+        <v>115843</v>
       </c>
       <c r="D106" s="3">
-        <v>43299.608414351853</v>
+        <v>43480.632719907408</v>
       </c>
       <c r="E106" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" s="2">
-        <v>359029</v>
+        <v>977784</v>
       </c>
       <c r="G106" s="2">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="I106">
-        <v>364</v>
+        <v>197</v>
       </c>
       <c r="J106" t="s">
-        <v>236</v>
+        <v>104</v>
       </c>
       <c r="K106" s="4"/>
       <c r="L106" t="s">
-        <v>237</v>
+        <v>105</v>
       </c>
       <c r="M106">
-        <v>2433</v>
+        <v>6165</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="B107" s="2">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="C107" s="2">
-        <v>596811</v>
+        <v>1259527</v>
       </c>
       <c r="D107" s="3">
-        <v>43797.485138888886</v>
+        <v>44057.457002314812</v>
       </c>
       <c r="E107" s="2">
         <v>1</v>
       </c>
       <c r="F107" s="2">
-        <v>4182233</v>
+        <v>7733160</v>
       </c>
       <c r="G107" s="2">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="I107">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="J107" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="K107" s="4"/>
       <c r="L107" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
       <c r="M107">
-        <v>17462</v>
+        <v>43841</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -5442,35 +5444,35 @@
         <v>1141</v>
       </c>
       <c r="C108" s="2">
-        <v>1108143</v>
+        <v>782603</v>
       </c>
       <c r="D108" s="3">
-        <v>44023.397453703707</v>
+        <v>43867.437268518515</v>
       </c>
       <c r="E108" s="2">
         <v>1</v>
       </c>
       <c r="F108" s="2">
-        <v>6939516</v>
+        <v>5275174</v>
       </c>
       <c r="G108" s="2">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>212</v>
+        <v>103</v>
       </c>
       <c r="I108">
-        <v>599</v>
+        <v>306</v>
       </c>
       <c r="J108" t="s">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="K108" s="4"/>
       <c r="L108" t="s">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="M108">
-        <v>42095</v>
+        <v>32721</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -5481,269 +5483,269 @@
         <v>1182</v>
       </c>
       <c r="C109" s="2">
-        <v>869865</v>
+        <v>1159309</v>
       </c>
       <c r="D109" s="3">
-        <v>43895.716921296298</v>
+        <v>44037.440358796295</v>
       </c>
       <c r="E109" s="2">
         <v>0</v>
       </c>
       <c r="F109" s="2">
-        <v>5778871</v>
+        <v>7253165</v>
       </c>
       <c r="G109" s="2">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="I109">
         <v>260</v>
       </c>
       <c r="J109" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="K109" s="4"/>
       <c r="L109" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="M109">
-        <v>30004</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7783</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B110" s="2">
-        <v>1182</v>
+        <v>1143</v>
       </c>
       <c r="C110" s="2">
-        <v>623470</v>
+        <v>1030628</v>
       </c>
       <c r="D110" s="3">
-        <v>43808.461296296293</v>
+        <v>43993.429386574076</v>
       </c>
       <c r="E110" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" s="2">
-        <v>4345133</v>
+        <v>6474972</v>
       </c>
       <c r="G110" s="2">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>571</v>
+        <v>102</v>
       </c>
       <c r="I110">
-        <v>458</v>
+        <v>249</v>
       </c>
       <c r="J110" t="s">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="K110" s="4"/>
       <c r="L110" t="s">
-        <v>245</v>
+        <v>81</v>
       </c>
       <c r="M110">
-        <v>21442</v>
+        <v>8199</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="B111" s="2">
-        <v>1182</v>
+        <v>1141</v>
       </c>
       <c r="C111" s="2">
-        <v>438366</v>
+        <v>64861</v>
       </c>
       <c r="D111" s="3">
-        <v>43714.942916666667</v>
+        <v>43376.633252314816</v>
       </c>
       <c r="E111" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" s="2">
-        <v>3187665</v>
+        <v>583103</v>
       </c>
       <c r="G111" s="2">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>388</v>
+        <v>101</v>
       </c>
       <c r="I111">
-        <v>277</v>
+        <v>205</v>
       </c>
       <c r="J111" t="s">
-        <v>246</v>
+        <v>119</v>
       </c>
       <c r="K111" s="4"/>
       <c r="L111" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
       <c r="M111">
-        <v>21442</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B112" s="2">
-        <v>1137</v>
+        <v>1143</v>
       </c>
       <c r="C112" s="2">
-        <v>1047786</v>
+        <v>1099110</v>
       </c>
       <c r="D112" s="3">
-        <v>44002.731608796297</v>
+        <v>44020.74113425926</v>
       </c>
       <c r="E112" s="2">
         <v>1</v>
       </c>
       <c r="F112" s="2">
-        <v>6576094</v>
+        <v>6884421</v>
       </c>
       <c r="G112" s="2">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>1290</v>
+        <v>101</v>
       </c>
       <c r="I112">
-        <v>399</v>
+        <v>199</v>
       </c>
       <c r="J112" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="K112" s="4"/>
       <c r="L112" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="M112">
-        <v>78</v>
+        <v>40109</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="B113" s="2">
-        <v>1144</v>
+        <v>1187</v>
       </c>
       <c r="C113" s="2">
-        <v>576406</v>
+        <v>291792</v>
       </c>
       <c r="D113" s="3">
-        <v>43788.567523148151</v>
+        <v>43622.458344907405</v>
       </c>
       <c r="E113" s="2">
         <v>1</v>
       </c>
       <c r="F113" s="2">
-        <v>4062251</v>
+        <v>2196156</v>
       </c>
       <c r="G113" s="2">
         <v>1</v>
       </c>
       <c r="H113">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="I113">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="J113" t="s">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="K113" s="4"/>
       <c r="L113" t="s">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="M113">
-        <v>13887</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13127</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B114" s="2">
-        <v>1182</v>
+        <v>1143</v>
       </c>
       <c r="C114" s="2">
-        <v>1159309</v>
+        <v>437744</v>
       </c>
       <c r="D114" s="3">
-        <v>44037.440358796295</v>
+        <v>43714.692662037036</v>
       </c>
       <c r="E114" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" s="2">
-        <v>7253165</v>
+        <v>3184046</v>
       </c>
       <c r="G114" s="2">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I114">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J114" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="K114" s="4"/>
       <c r="L114" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="M114">
-        <v>7783</v>
+        <v>21442</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B115" s="2">
-        <v>1137</v>
+        <v>1182</v>
       </c>
       <c r="C115" s="2">
-        <v>1158749</v>
+        <v>217292</v>
       </c>
       <c r="D115" s="3">
-        <v>44037.347025462965</v>
+        <v>43565.416296296295</v>
       </c>
       <c r="E115" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" s="2">
-        <v>7250283</v>
+        <v>1666574</v>
       </c>
       <c r="G115" s="2">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="I115">
-        <v>1099</v>
+        <v>455</v>
       </c>
       <c r="J115" t="s">
-        <v>254</v>
+        <v>55</v>
       </c>
       <c r="K115" s="4"/>
       <c r="L115" t="s">
-        <v>255</v>
+        <v>56</v>
       </c>
       <c r="M115">
-        <v>38205</v>
+        <v>10170</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -5751,431 +5753,436 @@
         <v>278</v>
       </c>
       <c r="B116" s="2">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="C116" s="2">
-        <v>818852</v>
+        <v>148035</v>
       </c>
       <c r="D116" s="3">
-        <v>43878.588425925926</v>
+        <v>43511.51798611111</v>
       </c>
       <c r="E116" s="2">
         <v>1</v>
       </c>
       <c r="F116" s="2">
-        <v>5488199</v>
+        <v>1183659</v>
       </c>
       <c r="G116" s="2">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="I116">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="J116" t="s">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="K116" s="4"/>
       <c r="L116" t="s">
+        <v>205</v>
+      </c>
+      <c r="M116">
+        <v>6559</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1173</v>
+      </c>
+      <c r="C117" s="2">
+        <v>141691</v>
+      </c>
+      <c r="D117" s="3">
+        <v>43507.438773148147</v>
+      </c>
+      <c r="E117" s="2">
+        <v>1</v>
+      </c>
+      <c r="F117" s="2">
+        <v>1141836</v>
+      </c>
+      <c r="G117" s="2">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>88</v>
+      </c>
+      <c r="I117">
         <v>257</v>
       </c>
-      <c r="M116">
-        <v>34900</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B117" s="2">
-        <v>1144</v>
-      </c>
-      <c r="C117" s="2">
-        <v>460388</v>
-      </c>
-      <c r="D117" s="3">
-        <v>43725.666631944441</v>
-      </c>
-      <c r="E117" s="2">
-        <v>1</v>
-      </c>
-      <c r="F117" s="2">
-        <v>3326705</v>
-      </c>
-      <c r="G117" s="2">
-        <v>1</v>
-      </c>
-      <c r="H117">
-        <v>151</v>
-      </c>
-      <c r="I117">
-        <v>190</v>
-      </c>
       <c r="J117" t="s">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="K117" s="4"/>
       <c r="L117" t="s">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="M117">
-        <v>13887</v>
+        <v>9157</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="B118" s="2">
-        <v>1152</v>
+        <v>1182</v>
       </c>
       <c r="C118" s="2">
-        <v>443969</v>
+        <v>869865</v>
       </c>
       <c r="D118" s="3">
-        <v>43718.542094907411</v>
+        <v>43895.716921296298</v>
       </c>
       <c r="E118" s="2">
         <v>0</v>
       </c>
       <c r="F118" s="2">
-        <v>3222558</v>
+        <v>5778871</v>
       </c>
       <c r="G118" s="2">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="I118">
-        <v>404</v>
+        <v>260</v>
       </c>
       <c r="J118" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="K118" s="4"/>
       <c r="L118" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="M118">
-        <v>16305</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>30004</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="B119" s="2">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C119" s="2">
-        <v>437744</v>
+        <v>818852</v>
       </c>
       <c r="D119" s="3">
-        <v>43714.692662037036</v>
+        <v>43878.588425925926</v>
       </c>
       <c r="E119" s="2">
         <v>1</v>
       </c>
       <c r="F119" s="2">
-        <v>3184046</v>
+        <v>5488218</v>
       </c>
       <c r="G119" s="2">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I119">
-        <v>257</v>
+        <v>380</v>
       </c>
       <c r="J119" t="s">
-        <v>262</v>
+        <v>152</v>
       </c>
       <c r="K119" s="4"/>
       <c r="L119" t="s">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c r="M119">
-        <v>21442</v>
+        <v>34900</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="B120" s="2">
-        <v>1182</v>
+        <v>1141</v>
       </c>
       <c r="C120" s="2">
-        <v>1142470</v>
+        <v>1131966</v>
       </c>
       <c r="D120" s="3">
-        <v>44033.626944444448</v>
+        <v>44030.432384259257</v>
       </c>
       <c r="E120" s="2">
         <v>1</v>
       </c>
       <c r="F120" s="2">
-        <v>7157871</v>
+        <v>7092513</v>
       </c>
       <c r="G120" s="2">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="I120">
-        <v>700</v>
+        <v>549</v>
       </c>
       <c r="J120" t="s">
-        <v>264</v>
+        <v>92</v>
       </c>
       <c r="K120" s="4"/>
       <c r="L120" t="s">
-        <v>265</v>
+        <v>93</v>
       </c>
       <c r="M120">
-        <v>37160</v>
+        <v>30407</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="B121" s="2">
-        <v>1182</v>
+        <v>1141</v>
       </c>
       <c r="C121" s="2">
-        <v>926898</v>
+        <v>818852</v>
       </c>
       <c r="D121" s="3">
-        <v>43913.693055555559</v>
+        <v>43878.588425925926</v>
       </c>
       <c r="E121" s="2">
         <v>1</v>
       </c>
       <c r="F121" s="2">
-        <v>6094875</v>
+        <v>5488199</v>
       </c>
       <c r="G121" s="2">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>192</v>
+        <v>69</v>
       </c>
       <c r="I121">
-        <v>457</v>
+        <v>380</v>
       </c>
       <c r="J121" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="K121" s="4"/>
       <c r="L121" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="M121">
-        <v>17313</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>34900</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="B122" s="2">
-        <v>1152</v>
+        <v>1173</v>
       </c>
       <c r="C122" s="2">
-        <v>824809</v>
+        <v>1133306</v>
       </c>
       <c r="D122" s="3">
-        <v>43880.60087962963</v>
+        <v>44030.651493055557</v>
       </c>
       <c r="E122" s="2">
         <v>1</v>
       </c>
       <c r="F122" s="2">
-        <v>5522243</v>
+        <v>7100419</v>
       </c>
       <c r="G122" s="2">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I122">
-        <v>197</v>
+        <v>379</v>
       </c>
       <c r="J122" t="s">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="K122" s="4"/>
       <c r="L122" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="M122">
-        <v>30425</v>
+        <v>21442</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>278</v>
+        <v>64</v>
       </c>
       <c r="B123" s="2">
-        <v>1144</v>
+        <v>1152</v>
       </c>
       <c r="C123" s="2">
-        <v>641734</v>
+        <v>824809</v>
       </c>
       <c r="D123" s="3">
-        <v>43815.432812500003</v>
+        <v>43880.60087962963</v>
       </c>
       <c r="E123" s="2">
         <v>1</v>
       </c>
       <c r="F123" s="2">
-        <v>4451689</v>
+        <v>5522243</v>
       </c>
       <c r="G123" s="2">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="I123">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="J123" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K123" s="4"/>
       <c r="L123" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M123">
-        <v>13887</v>
+        <v>30425</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="B124" s="2">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C124" s="2">
-        <v>542591</v>
+        <v>596811</v>
       </c>
       <c r="D124" s="3">
-        <v>43772.401145833333</v>
+        <v>43797.485138888886</v>
       </c>
       <c r="E124" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" s="2">
-        <v>3861080</v>
+        <v>4182233</v>
       </c>
       <c r="G124" s="2">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>403</v>
+        <v>43</v>
       </c>
       <c r="I124">
-        <v>226</v>
+        <v>397</v>
       </c>
       <c r="J124" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="K124" s="4"/>
       <c r="L124" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="M124">
-        <v>27747</v>
+        <v>17462</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="B125" s="2">
-        <v>1158</v>
+        <v>1182</v>
       </c>
       <c r="C125" s="2">
-        <v>115843</v>
+        <v>616657</v>
       </c>
       <c r="D125" s="3">
-        <v>43480.632719907408</v>
+        <v>43805.528055555558</v>
       </c>
       <c r="E125" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" s="2">
-        <v>977786</v>
+        <v>4301435</v>
       </c>
       <c r="G125" s="2">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I125">
-        <v>204</v>
+        <v>273</v>
       </c>
       <c r="J125" t="s">
-        <v>274</v>
+        <v>74</v>
       </c>
       <c r="K125" s="4"/>
       <c r="L125" t="s">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="M125">
-        <v>6165</v>
+        <v>30004</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B126" s="2">
-        <v>1137</v>
+        <v>1170</v>
       </c>
       <c r="C126" s="2">
-        <v>1203385</v>
+        <v>431651</v>
       </c>
       <c r="D126" s="3">
-        <v>44047.494421296295</v>
+        <v>43711.530185185184</v>
       </c>
       <c r="E126" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" s="2">
-        <v>7475853</v>
+        <v>3145241</v>
       </c>
       <c r="G126" s="2">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>360</v>
+        <v>4</v>
       </c>
       <c r="I126">
-        <v>300</v>
+        <v>191</v>
       </c>
       <c r="J126" t="s">
-        <v>276</v>
+        <v>198</v>
       </c>
       <c r="K126" s="4"/>
       <c r="L126" t="s">
-        <v>277</v>
+        <v>199</v>
       </c>
       <c r="M126">
-        <v>10419</v>
+        <v>17403</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M126" xr:uid="{162719A8-CF50-4951-9E3C-79A2645B13DB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M126">
+      <sortCondition descending="1" ref="H1:H126"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>